--- a/Datos/Precio_Bolsa_Nacional_($kwh)_2021.xlsx
+++ b/Datos/Precio_Bolsa_Nacional_($kwh)_2021.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20365"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48C00AA0-8186-444F-A806-83E30ADCDDE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MAESTRIA UNIANDES\BIG DATA\Proyecto-final-MEcA-4107\Datos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1444A5EA-E476-4015-8030-F174B94B13FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Precio_Bolsa_Nacional_(Valor_kw" sheetId="1" r:id="rId1"/>
@@ -108,11 +113,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00;\-"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,7 +210,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -286,7 +290,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -608,20 +612,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Z368"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A368"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="26" width="11.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="26" width="11.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" ht="16.2" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -701,7 +707,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>44197</v>
       </c>
@@ -781,7 +787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>44198</v>
       </c>
@@ -861,7 +867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>44199</v>
       </c>
@@ -941,7 +947,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>44200</v>
       </c>
@@ -1021,7 +1027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>44201</v>
       </c>
@@ -1101,7 +1107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>44202</v>
       </c>
@@ -1181,7 +1187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>44203</v>
       </c>
@@ -1261,7 +1267,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>44204</v>
       </c>
@@ -1341,7 +1347,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>44205</v>
       </c>
@@ -1421,7 +1427,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>44206</v>
       </c>
@@ -1501,7 +1507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>44207</v>
       </c>
@@ -1581,7 +1587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>44208</v>
       </c>
@@ -1661,7 +1667,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>44209</v>
       </c>
@@ -1741,7 +1747,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>44210</v>
       </c>
@@ -1821,7 +1827,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>44211</v>
       </c>
@@ -1901,7 +1907,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>44212</v>
       </c>
@@ -1981,7 +1987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>44213</v>
       </c>
@@ -2061,7 +2067,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>44214</v>
       </c>
@@ -2141,7 +2147,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>44215</v>
       </c>
@@ -2221,7 +2227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>44216</v>
       </c>
@@ -2301,7 +2307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>44217</v>
       </c>
@@ -2381,7 +2387,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>44218</v>
       </c>
@@ -2461,7 +2467,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>44219</v>
       </c>
@@ -2541,7 +2547,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>44220</v>
       </c>
@@ -2621,7 +2627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>44221</v>
       </c>
@@ -2701,7 +2707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>44222</v>
       </c>
@@ -2781,7 +2787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>44223</v>
       </c>
@@ -2861,7 +2867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>44224</v>
       </c>
@@ -2941,7 +2947,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>44225</v>
       </c>
@@ -3021,7 +3027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>44226</v>
       </c>
@@ -3101,7 +3107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>44227</v>
       </c>
@@ -3181,7 +3187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>44228</v>
       </c>
@@ -3261,7 +3267,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>44229</v>
       </c>
@@ -3341,7 +3347,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>44230</v>
       </c>
@@ -3421,7 +3427,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>44231</v>
       </c>
@@ -3501,7 +3507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>44232</v>
       </c>
@@ -3581,7 +3587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>44233</v>
       </c>
@@ -3661,7 +3667,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>44234</v>
       </c>
@@ -3741,7 +3747,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>44235</v>
       </c>
@@ -3821,7 +3827,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>44236</v>
       </c>
@@ -3901,7 +3907,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>44237</v>
       </c>
@@ -3981,7 +3987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44238</v>
       </c>
@@ -4061,7 +4067,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>44239</v>
       </c>
@@ -4141,7 +4147,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>44240</v>
       </c>
@@ -4221,7 +4227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>44241</v>
       </c>
@@ -4301,7 +4307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>44242</v>
       </c>
@@ -4381,7 +4387,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>44243</v>
       </c>
@@ -4461,7 +4467,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>44244</v>
       </c>
@@ -4541,7 +4547,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>44245</v>
       </c>
@@ -4621,7 +4627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>44246</v>
       </c>
@@ -4701,7 +4707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>44247</v>
       </c>
@@ -4781,7 +4787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>44248</v>
       </c>
@@ -4861,7 +4867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>44249</v>
       </c>
@@ -4941,7 +4947,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>44250</v>
       </c>
@@ -5021,7 +5027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>44251</v>
       </c>
@@ -5101,7 +5107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>44252</v>
       </c>
@@ -5181,7 +5187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>44253</v>
       </c>
@@ -5261,7 +5267,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>44254</v>
       </c>
@@ -5341,7 +5347,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>44255</v>
       </c>
@@ -5421,7 +5427,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>44256</v>
       </c>
@@ -5501,7 +5507,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>44257</v>
       </c>
@@ -5581,7 +5587,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>44258</v>
       </c>
@@ -5661,7 +5667,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>44259</v>
       </c>
@@ -5741,7 +5747,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>44260</v>
       </c>
@@ -5821,7 +5827,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>44261</v>
       </c>
@@ -5901,7 +5907,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>44262</v>
       </c>
@@ -5981,7 +5987,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>44263</v>
       </c>
@@ -6061,7 +6067,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>44264</v>
       </c>
@@ -6141,7 +6147,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>44265</v>
       </c>
@@ -6221,7 +6227,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>44266</v>
       </c>
@@ -6301,7 +6307,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>44267</v>
       </c>
@@ -6381,7 +6387,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>44268</v>
       </c>
@@ -6461,7 +6467,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>44269</v>
       </c>
@@ -6541,7 +6547,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>44270</v>
       </c>
@@ -6621,7 +6627,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>44271</v>
       </c>
@@ -6701,7 +6707,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>44272</v>
       </c>
@@ -6781,7 +6787,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>44273</v>
       </c>
@@ -6861,7 +6867,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>44274</v>
       </c>
@@ -6941,7 +6947,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>44275</v>
       </c>
@@ -7021,7 +7027,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>44276</v>
       </c>
@@ -7101,7 +7107,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>44277</v>
       </c>
@@ -7181,7 +7187,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>44278</v>
       </c>
@@ -7261,7 +7267,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>44279</v>
       </c>
@@ -7341,7 +7347,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>44280</v>
       </c>
@@ -7421,7 +7427,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>44281</v>
       </c>
@@ -7501,7 +7507,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>44282</v>
       </c>
@@ -7581,7 +7587,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>44283</v>
       </c>
@@ -7661,7 +7667,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>44284</v>
       </c>
@@ -7741,7 +7747,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>44285</v>
       </c>
@@ -7821,7 +7827,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>44286</v>
       </c>
@@ -7901,7 +7907,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>44287</v>
       </c>
@@ -7981,7 +7987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>44288</v>
       </c>
@@ -8061,7 +8067,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>44289</v>
       </c>
@@ -8141,7 +8147,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>44290</v>
       </c>
@@ -8221,7 +8227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>44291</v>
       </c>
@@ -8301,7 +8307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>44292</v>
       </c>
@@ -8381,7 +8387,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>44293</v>
       </c>
@@ -8461,7 +8467,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:26">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>44294</v>
       </c>
@@ -8541,7 +8547,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:26">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>44295</v>
       </c>
@@ -8621,7 +8627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:26">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>44296</v>
       </c>
@@ -8701,7 +8707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>44297</v>
       </c>
@@ -8781,7 +8787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:26">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>44298</v>
       </c>
@@ -8861,7 +8867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:26">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>44299</v>
       </c>
@@ -8941,7 +8947,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:26">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>44300</v>
       </c>
@@ -9021,7 +9027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:26">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>44301</v>
       </c>
@@ -9101,7 +9107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>44302</v>
       </c>
@@ -9181,7 +9187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>44303</v>
       </c>
@@ -9261,7 +9267,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:26">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>44304</v>
       </c>
@@ -9341,7 +9347,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>44305</v>
       </c>
@@ -9421,7 +9427,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:26">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>44306</v>
       </c>
@@ -9501,7 +9507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:26">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>44307</v>
       </c>
@@ -9581,7 +9587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="1:26">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>44308</v>
       </c>
@@ -9661,7 +9667,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:26">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>44309</v>
       </c>
@@ -9741,7 +9747,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:26">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>44310</v>
       </c>
@@ -9821,7 +9827,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:26">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>44311</v>
       </c>
@@ -9901,7 +9907,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="1:26">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>44312</v>
       </c>
@@ -9981,7 +9987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:26">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>44313</v>
       </c>
@@ -10061,7 +10067,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="121" spans="1:26">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>44314</v>
       </c>
@@ -10141,7 +10147,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:26">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>44315</v>
       </c>
@@ -10221,7 +10227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:26">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>44316</v>
       </c>
@@ -10301,7 +10307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="124" spans="1:26">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>44317</v>
       </c>
@@ -10381,7 +10387,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="1:26">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>44318</v>
       </c>
@@ -10461,7 +10467,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="126" spans="1:26">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>44319</v>
       </c>
@@ -10541,7 +10547,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="127" spans="1:26">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>44320</v>
       </c>
@@ -10621,7 +10627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="128" spans="1:26">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>44321</v>
       </c>
@@ -10701,7 +10707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="129" spans="1:26">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>44322</v>
       </c>
@@ -10781,7 +10787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="130" spans="1:26">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>44323</v>
       </c>
@@ -10861,7 +10867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="131" spans="1:26">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>44324</v>
       </c>
@@ -10941,7 +10947,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="132" spans="1:26">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>44325</v>
       </c>
@@ -11021,7 +11027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="133" spans="1:26">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>44326</v>
       </c>
@@ -11101,7 +11107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:26">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>44327</v>
       </c>
@@ -11181,7 +11187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:26">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>44328</v>
       </c>
@@ -11261,7 +11267,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:26">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>44329</v>
       </c>
@@ -11341,7 +11347,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="137" spans="1:26">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>44330</v>
       </c>
@@ -11421,7 +11427,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="138" spans="1:26">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>44331</v>
       </c>
@@ -11501,7 +11507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:26">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>44332</v>
       </c>
@@ -11581,7 +11587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:26">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>44333</v>
       </c>
@@ -11661,7 +11667,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="141" spans="1:26">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>44334</v>
       </c>
@@ -11741,7 +11747,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:26">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>44335</v>
       </c>
@@ -11821,7 +11827,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="1:26">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>44336</v>
       </c>
@@ -11901,7 +11907,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="144" spans="1:26">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>44337</v>
       </c>
@@ -11981,7 +11987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:26">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>44338</v>
       </c>
@@ -12061,7 +12067,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:26">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>44339</v>
       </c>
@@ -12141,7 +12147,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="147" spans="1:26">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>44340</v>
       </c>
@@ -12221,7 +12227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="148" spans="1:26">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>44341</v>
       </c>
@@ -12301,7 +12307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="149" spans="1:26">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>44342</v>
       </c>
@@ -12381,7 +12387,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="150" spans="1:26">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>44343</v>
       </c>
@@ -12461,7 +12467,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="151" spans="1:26">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>44344</v>
       </c>
@@ -12541,7 +12547,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:26">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>44345</v>
       </c>
@@ -12621,7 +12627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="153" spans="1:26">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>44346</v>
       </c>
@@ -12701,7 +12707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="154" spans="1:26">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>44347</v>
       </c>
@@ -12781,7 +12787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="1:26">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>44348</v>
       </c>
@@ -12861,7 +12867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="156" spans="1:26">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>44349</v>
       </c>
@@ -12941,7 +12947,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="157" spans="1:26">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>44350</v>
       </c>
@@ -13021,7 +13027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="158" spans="1:26">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>44351</v>
       </c>
@@ -13101,7 +13107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="159" spans="1:26">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>44352</v>
       </c>
@@ -13181,7 +13187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="1:26">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>44353</v>
       </c>
@@ -13261,7 +13267,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="161" spans="1:26">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>44354</v>
       </c>
@@ -13341,7 +13347,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:26">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>44355</v>
       </c>
@@ -13421,7 +13427,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="163" spans="1:26">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>44356</v>
       </c>
@@ -13501,7 +13507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="164" spans="1:26">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>44357</v>
       </c>
@@ -13581,7 +13587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="1:26">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>44358</v>
       </c>
@@ -13661,7 +13667,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="166" spans="1:26">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>44359</v>
       </c>
@@ -13741,7 +13747,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="167" spans="1:26">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>44360</v>
       </c>
@@ -13821,7 +13827,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:26">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>44361</v>
       </c>
@@ -13901,7 +13907,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="1:26">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <v>44362</v>
       </c>
@@ -13981,7 +13987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:26">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
         <v>44363</v>
       </c>
@@ -14061,7 +14067,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="171" spans="1:26">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <v>44364</v>
       </c>
@@ -14141,7 +14147,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="172" spans="1:26">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>44365</v>
       </c>
@@ -14221,7 +14227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="173" spans="1:26">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>44366</v>
       </c>
@@ -14301,7 +14307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="174" spans="1:26">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>44367</v>
       </c>
@@ -14381,7 +14387,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="175" spans="1:26">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <v>44368</v>
       </c>
@@ -14461,7 +14467,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="1:26">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>44369</v>
       </c>
@@ -14541,7 +14547,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="177" spans="1:26">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>44370</v>
       </c>
@@ -14621,7 +14627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="178" spans="1:26">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <v>44371</v>
       </c>
@@ -14701,7 +14707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="179" spans="1:26">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <v>44372</v>
       </c>
@@ -14781,7 +14787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="180" spans="1:26">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
         <v>44373</v>
       </c>
@@ -14861,7 +14867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="181" spans="1:26">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
         <v>44374</v>
       </c>
@@ -14941,7 +14947,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="182" spans="1:26">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
         <v>44375</v>
       </c>
@@ -15021,7 +15027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="183" spans="1:26">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
         <v>44376</v>
       </c>
@@ -15101,7 +15107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="184" spans="1:26">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
         <v>44377</v>
       </c>
@@ -15181,7 +15187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="185" spans="1:26">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
         <v>44378</v>
       </c>
@@ -15261,7 +15267,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="186" spans="1:26">
+    <row r="186" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
         <v>44379</v>
       </c>
@@ -15341,7 +15347,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="187" spans="1:26">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
         <v>44380</v>
       </c>
@@ -15421,7 +15427,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:26">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
         <v>44381</v>
       </c>
@@ -15501,7 +15507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="189" spans="1:26">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
         <v>44382</v>
       </c>
@@ -15581,7 +15587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="190" spans="1:26">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
         <v>44383</v>
       </c>
@@ -15661,7 +15667,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="191" spans="1:26">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
         <v>44384</v>
       </c>
@@ -15741,7 +15747,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="1:26">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
         <v>44385</v>
       </c>
@@ -15821,7 +15827,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:26">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
         <v>44386</v>
       </c>
@@ -15901,7 +15907,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="194" spans="1:26">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
         <v>44387</v>
       </c>
@@ -15981,7 +15987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="195" spans="1:26">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
         <v>44388</v>
       </c>
@@ -16061,7 +16067,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="196" spans="1:26">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
         <v>44389</v>
       </c>
@@ -16141,7 +16147,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="197" spans="1:26">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
         <v>44390</v>
       </c>
@@ -16221,7 +16227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="198" spans="1:26">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
         <v>44391</v>
       </c>
@@ -16301,7 +16307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="1:26">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
         <v>44392</v>
       </c>
@@ -16381,7 +16387,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="200" spans="1:26">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
         <v>44393</v>
       </c>
@@ -16461,7 +16467,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="201" spans="1:26">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
         <v>44394</v>
       </c>
@@ -16541,7 +16547,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="202" spans="1:26">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
         <v>44395</v>
       </c>
@@ -16621,7 +16627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="203" spans="1:26">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A203" s="4">
         <v>44396</v>
       </c>
@@ -16701,7 +16707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:26">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A204" s="4">
         <v>44397</v>
       </c>
@@ -16781,7 +16787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="205" spans="1:26">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A205" s="4">
         <v>44398</v>
       </c>
@@ -16861,7 +16867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:26">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A206" s="4">
         <v>44399</v>
       </c>
@@ -16941,7 +16947,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="207" spans="1:26">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A207" s="4">
         <v>44400</v>
       </c>
@@ -17021,7 +17027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="208" spans="1:26">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A208" s="4">
         <v>44401</v>
       </c>
@@ -17101,7 +17107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="209" spans="1:26">
+    <row r="209" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A209" s="4">
         <v>44402</v>
       </c>
@@ -17181,7 +17187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="210" spans="1:26">
+    <row r="210" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A210" s="4">
         <v>44403</v>
       </c>
@@ -17261,7 +17267,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="211" spans="1:26">
+    <row r="211" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A211" s="4">
         <v>44404</v>
       </c>
@@ -17341,7 +17347,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="212" spans="1:26">
+    <row r="212" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A212" s="4">
         <v>44405</v>
       </c>
@@ -17421,7 +17427,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="213" spans="1:26">
+    <row r="213" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A213" s="4">
         <v>44406</v>
       </c>
@@ -17501,7 +17507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:26">
+    <row r="214" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A214" s="4">
         <v>44407</v>
       </c>
@@ -17581,7 +17587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="215" spans="1:26">
+    <row r="215" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A215" s="4">
         <v>44408</v>
       </c>
@@ -17661,7 +17667,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="1:26">
+    <row r="216" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A216" s="4">
         <v>44409</v>
       </c>
@@ -17741,7 +17747,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="217" spans="1:26">
+    <row r="217" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A217" s="4">
         <v>44410</v>
       </c>
@@ -17821,7 +17827,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="218" spans="1:26">
+    <row r="218" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A218" s="4">
         <v>44411</v>
       </c>
@@ -17901,7 +17907,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="219" spans="1:26">
+    <row r="219" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A219" s="4">
         <v>44412</v>
       </c>
@@ -17981,7 +17987,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="220" spans="1:26">
+    <row r="220" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A220" s="4">
         <v>44413</v>
       </c>
@@ -18061,7 +18067,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="221" spans="1:26">
+    <row r="221" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A221" s="4">
         <v>44414</v>
       </c>
@@ -18141,7 +18147,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="222" spans="1:26">
+    <row r="222" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A222" s="4">
         <v>44415</v>
       </c>
@@ -18221,7 +18227,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="223" spans="1:26">
+    <row r="223" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A223" s="4">
         <v>44416</v>
       </c>
@@ -18301,7 +18307,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="224" spans="1:26">
+    <row r="224" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A224" s="4">
         <v>44417</v>
       </c>
@@ -18381,7 +18387,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="225" spans="1:26">
+    <row r="225" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A225" s="4">
         <v>44418</v>
       </c>
@@ -18461,7 +18467,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="226" spans="1:26">
+    <row r="226" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A226" s="4">
         <v>44419</v>
       </c>
@@ -18541,7 +18547,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="227" spans="1:26">
+    <row r="227" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A227" s="4">
         <v>44420</v>
       </c>
@@ -18621,7 +18627,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="228" spans="1:26">
+    <row r="228" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A228" s="4">
         <v>44421</v>
       </c>
@@ -18701,7 +18707,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="229" spans="1:26">
+    <row r="229" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A229" s="4">
         <v>44422</v>
       </c>
@@ -18781,7 +18787,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="230" spans="1:26">
+    <row r="230" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A230" s="4">
         <v>44423</v>
       </c>
@@ -18861,7 +18867,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="231" spans="1:26">
+    <row r="231" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A231" s="4">
         <v>44424</v>
       </c>
@@ -18941,7 +18947,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="232" spans="1:26">
+    <row r="232" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A232" s="4">
         <v>44425</v>
       </c>
@@ -19021,7 +19027,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="233" spans="1:26">
+    <row r="233" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A233" s="4">
         <v>44426</v>
       </c>
@@ -19101,7 +19107,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="234" spans="1:26">
+    <row r="234" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A234" s="4">
         <v>44427</v>
       </c>
@@ -19181,7 +19187,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="235" spans="1:26">
+    <row r="235" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A235" s="4">
         <v>44428</v>
       </c>
@@ -19261,7 +19267,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="236" spans="1:26">
+    <row r="236" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A236" s="4">
         <v>44429</v>
       </c>
@@ -19341,7 +19347,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="237" spans="1:26">
+    <row r="237" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A237" s="4">
         <v>44430</v>
       </c>
@@ -19421,7 +19427,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="238" spans="1:26">
+    <row r="238" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A238" s="4">
         <v>44431</v>
       </c>
@@ -19501,7 +19507,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="239" spans="1:26">
+    <row r="239" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A239" s="4">
         <v>44432</v>
       </c>
@@ -19581,7 +19587,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="240" spans="1:26">
+    <row r="240" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A240" s="4">
         <v>44433</v>
       </c>
@@ -19661,7 +19667,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="241" spans="1:26">
+    <row r="241" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A241" s="4">
         <v>44434</v>
       </c>
@@ -19741,7 +19747,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="242" spans="1:26">
+    <row r="242" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
         <v>44435</v>
       </c>
@@ -19821,7 +19827,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="243" spans="1:26">
+    <row r="243" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A243" s="4">
         <v>44436</v>
       </c>
@@ -19901,7 +19907,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="244" spans="1:26">
+    <row r="244" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A244" s="4">
         <v>44437</v>
       </c>
@@ -19981,7 +19987,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="245" spans="1:26">
+    <row r="245" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A245" s="4">
         <v>44438</v>
       </c>
@@ -20061,7 +20067,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="246" spans="1:26">
+    <row r="246" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A246" s="4">
         <v>44439</v>
       </c>
@@ -20141,7 +20147,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="247" spans="1:26">
+    <row r="247" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A247" s="4">
         <v>44440</v>
       </c>
@@ -20221,7 +20227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="248" spans="1:26">
+    <row r="248" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A248" s="4">
         <v>44441</v>
       </c>
@@ -20301,7 +20307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="249" spans="1:26">
+    <row r="249" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A249" s="4">
         <v>44442</v>
       </c>
@@ -20381,7 +20387,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="250" spans="1:26">
+    <row r="250" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A250" s="4">
         <v>44443</v>
       </c>
@@ -20461,7 +20467,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="251" spans="1:26">
+    <row r="251" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A251" s="4">
         <v>44444</v>
       </c>
@@ -20541,7 +20547,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="252" spans="1:26">
+    <row r="252" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A252" s="4">
         <v>44445</v>
       </c>
@@ -20621,7 +20627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="253" spans="1:26">
+    <row r="253" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A253" s="4">
         <v>44446</v>
       </c>
@@ -20701,7 +20707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="254" spans="1:26">
+    <row r="254" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A254" s="4">
         <v>44447</v>
       </c>
@@ -20781,7 +20787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="255" spans="1:26">
+    <row r="255" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A255" s="4">
         <v>44448</v>
       </c>
@@ -20861,7 +20867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="256" spans="1:26">
+    <row r="256" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A256" s="4">
         <v>44449</v>
       </c>
@@ -20941,7 +20947,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="257" spans="1:26">
+    <row r="257" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A257" s="4">
         <v>44450</v>
       </c>
@@ -21021,7 +21027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="258" spans="1:26">
+    <row r="258" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A258" s="4">
         <v>44451</v>
       </c>
@@ -21101,7 +21107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="259" spans="1:26">
+    <row r="259" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A259" s="4">
         <v>44452</v>
       </c>
@@ -21181,7 +21187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="260" spans="1:26">
+    <row r="260" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A260" s="4">
         <v>44453</v>
       </c>
@@ -21261,7 +21267,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="261" spans="1:26">
+    <row r="261" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A261" s="4">
         <v>44454</v>
       </c>
@@ -21341,7 +21347,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="262" spans="1:26">
+    <row r="262" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A262" s="4">
         <v>44455</v>
       </c>
@@ -21421,7 +21427,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="263" spans="1:26">
+    <row r="263" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A263" s="4">
         <v>44456</v>
       </c>
@@ -21501,7 +21507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="264" spans="1:26">
+    <row r="264" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A264" s="4">
         <v>44457</v>
       </c>
@@ -21581,7 +21587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="265" spans="1:26">
+    <row r="265" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A265" s="4">
         <v>44458</v>
       </c>
@@ -21661,7 +21667,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="266" spans="1:26">
+    <row r="266" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A266" s="4">
         <v>44459</v>
       </c>
@@ -21741,7 +21747,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="267" spans="1:26">
+    <row r="267" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A267" s="4">
         <v>44460</v>
       </c>
@@ -21821,7 +21827,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="268" spans="1:26">
+    <row r="268" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A268" s="4">
         <v>44461</v>
       </c>
@@ -21901,7 +21907,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="269" spans="1:26">
+    <row r="269" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A269" s="4">
         <v>44462</v>
       </c>
@@ -21981,7 +21987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="270" spans="1:26">
+    <row r="270" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A270" s="4">
         <v>44463</v>
       </c>
@@ -22061,7 +22067,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="271" spans="1:26">
+    <row r="271" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A271" s="4">
         <v>44464</v>
       </c>
@@ -22141,7 +22147,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="272" spans="1:26">
+    <row r="272" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A272" s="4">
         <v>44465</v>
       </c>
@@ -22221,7 +22227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="273" spans="1:26">
+    <row r="273" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A273" s="4">
         <v>44466</v>
       </c>
@@ -22301,7 +22307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="274" spans="1:26">
+    <row r="274" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A274" s="4">
         <v>44467</v>
       </c>
@@ -22381,7 +22387,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="275" spans="1:26">
+    <row r="275" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A275" s="4">
         <v>44468</v>
       </c>
@@ -22461,7 +22467,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="276" spans="1:26">
+    <row r="276" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A276" s="4">
         <v>44469</v>
       </c>
@@ -22541,7 +22547,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="277" spans="1:26">
+    <row r="277" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A277" s="4">
         <v>44470</v>
       </c>
@@ -22621,7 +22627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="278" spans="1:26">
+    <row r="278" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A278" s="4">
         <v>44471</v>
       </c>
@@ -22701,7 +22707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="279" spans="1:26">
+    <row r="279" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A279" s="4">
         <v>44472</v>
       </c>
@@ -22781,7 +22787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="280" spans="1:26">
+    <row r="280" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A280" s="4">
         <v>44473</v>
       </c>
@@ -22861,7 +22867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="281" spans="1:26">
+    <row r="281" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A281" s="4">
         <v>44474</v>
       </c>
@@ -22941,7 +22947,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="282" spans="1:26">
+    <row r="282" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A282" s="4">
         <v>44475</v>
       </c>
@@ -23021,7 +23027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="283" spans="1:26">
+    <row r="283" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A283" s="4">
         <v>44476</v>
       </c>
@@ -23101,7 +23107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="284" spans="1:26">
+    <row r="284" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A284" s="4">
         <v>44477</v>
       </c>
@@ -23181,7 +23187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="285" spans="1:26">
+    <row r="285" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A285" s="4">
         <v>44478</v>
       </c>
@@ -23261,7 +23267,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="286" spans="1:26">
+    <row r="286" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A286" s="4">
         <v>44479</v>
       </c>
@@ -23341,7 +23347,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="287" spans="1:26">
+    <row r="287" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A287" s="4">
         <v>44480</v>
       </c>
@@ -23421,7 +23427,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="288" spans="1:26">
+    <row r="288" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A288" s="4">
         <v>44481</v>
       </c>
@@ -23501,7 +23507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="289" spans="1:26">
+    <row r="289" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A289" s="4">
         <v>44482</v>
       </c>
@@ -23581,7 +23587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="290" spans="1:26">
+    <row r="290" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A290" s="4">
         <v>44483</v>
       </c>
@@ -23661,7 +23667,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="291" spans="1:26">
+    <row r="291" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A291" s="4">
         <v>44484</v>
       </c>
@@ -23741,7 +23747,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="292" spans="1:26">
+    <row r="292" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A292" s="4">
         <v>44485</v>
       </c>
@@ -23821,7 +23827,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="293" spans="1:26">
+    <row r="293" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A293" s="4">
         <v>44486</v>
       </c>
@@ -23901,7 +23907,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="294" spans="1:26">
+    <row r="294" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A294" s="4">
         <v>44487</v>
       </c>
@@ -23981,7 +23987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="295" spans="1:26">
+    <row r="295" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A295" s="4">
         <v>44488</v>
       </c>
@@ -24061,7 +24067,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="296" spans="1:26">
+    <row r="296" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A296" s="4">
         <v>44489</v>
       </c>
@@ -24141,7 +24147,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="297" spans="1:26">
+    <row r="297" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A297" s="4">
         <v>44490</v>
       </c>
@@ -24221,7 +24227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="298" spans="1:26">
+    <row r="298" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A298" s="4">
         <v>44491</v>
       </c>
@@ -24301,7 +24307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="299" spans="1:26">
+    <row r="299" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A299" s="4">
         <v>44492</v>
       </c>
@@ -24381,7 +24387,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="300" spans="1:26">
+    <row r="300" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A300" s="4">
         <v>44493</v>
       </c>
@@ -24461,7 +24467,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="301" spans="1:26">
+    <row r="301" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A301" s="4">
         <v>44494</v>
       </c>
@@ -24541,7 +24547,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="302" spans="1:26">
+    <row r="302" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A302" s="4">
         <v>44495</v>
       </c>
@@ -24621,7 +24627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="303" spans="1:26">
+    <row r="303" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A303" s="4">
         <v>44496</v>
       </c>
@@ -24701,7 +24707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="304" spans="1:26">
+    <row r="304" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A304" s="4">
         <v>44497</v>
       </c>
@@ -24781,7 +24787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="305" spans="1:26">
+    <row r="305" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A305" s="4">
         <v>44498</v>
       </c>
@@ -24861,7 +24867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="306" spans="1:26">
+    <row r="306" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A306" s="4">
         <v>44499</v>
       </c>
@@ -24941,7 +24947,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="307" spans="1:26">
+    <row r="307" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A307" s="4">
         <v>44500</v>
       </c>
@@ -25021,7 +25027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="308" spans="1:26">
+    <row r="308" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A308" s="4">
         <v>44501</v>
       </c>
@@ -25101,7 +25107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="309" spans="1:26">
+    <row r="309" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A309" s="4">
         <v>44502</v>
       </c>
@@ -25181,7 +25187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="310" spans="1:26">
+    <row r="310" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A310" s="4">
         <v>44503</v>
       </c>
@@ -25261,7 +25267,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="311" spans="1:26">
+    <row r="311" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A311" s="4">
         <v>44504</v>
       </c>
@@ -25341,7 +25347,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="312" spans="1:26">
+    <row r="312" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A312" s="4">
         <v>44505</v>
       </c>
@@ -25421,7 +25427,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="313" spans="1:26">
+    <row r="313" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A313" s="4">
         <v>44506</v>
       </c>
@@ -25501,7 +25507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="314" spans="1:26">
+    <row r="314" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A314" s="4">
         <v>44507</v>
       </c>
@@ -25581,7 +25587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="315" spans="1:26">
+    <row r="315" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A315" s="4">
         <v>44508</v>
       </c>
@@ -25661,7 +25667,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="316" spans="1:26">
+    <row r="316" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A316" s="4">
         <v>44509</v>
       </c>
@@ -25741,7 +25747,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="317" spans="1:26">
+    <row r="317" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A317" s="4">
         <v>44510</v>
       </c>
@@ -25821,7 +25827,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="318" spans="1:26">
+    <row r="318" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A318" s="4">
         <v>44511</v>
       </c>
@@ -25901,7 +25907,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="319" spans="1:26">
+    <row r="319" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A319" s="4">
         <v>44512</v>
       </c>
@@ -25981,7 +25987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="320" spans="1:26">
+    <row r="320" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A320" s="4">
         <v>44513</v>
       </c>
@@ -26061,7 +26067,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="321" spans="1:26">
+    <row r="321" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A321" s="4">
         <v>44514</v>
       </c>
@@ -26141,7 +26147,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="322" spans="1:26">
+    <row r="322" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A322" s="4">
         <v>44515</v>
       </c>
@@ -26221,7 +26227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="323" spans="1:26">
+    <row r="323" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A323" s="4">
         <v>44516</v>
       </c>
@@ -26301,7 +26307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="324" spans="1:26">
+    <row r="324" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A324" s="4">
         <v>44517</v>
       </c>
@@ -26381,7 +26387,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="325" spans="1:26">
+    <row r="325" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A325" s="4">
         <v>44518</v>
       </c>
@@ -26461,7 +26467,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="326" spans="1:26">
+    <row r="326" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A326" s="4">
         <v>44519</v>
       </c>
@@ -26541,7 +26547,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="327" spans="1:26">
+    <row r="327" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A327" s="4">
         <v>44520</v>
       </c>
@@ -26621,7 +26627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="328" spans="1:26">
+    <row r="328" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A328" s="4">
         <v>44521</v>
       </c>
@@ -26701,7 +26707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="329" spans="1:26">
+    <row r="329" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A329" s="4">
         <v>44522</v>
       </c>
@@ -26781,7 +26787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="330" spans="1:26">
+    <row r="330" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A330" s="4">
         <v>44523</v>
       </c>
@@ -26861,7 +26867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="331" spans="1:26">
+    <row r="331" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A331" s="4">
         <v>44524</v>
       </c>
@@ -26941,7 +26947,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="332" spans="1:26">
+    <row r="332" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A332" s="4">
         <v>44525</v>
       </c>
@@ -27021,7 +27027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="333" spans="1:26">
+    <row r="333" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A333" s="4">
         <v>44526</v>
       </c>
@@ -27101,7 +27107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="334" spans="1:26">
+    <row r="334" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A334" s="4">
         <v>44527</v>
       </c>
@@ -27181,7 +27187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="335" spans="1:26">
+    <row r="335" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A335" s="4">
         <v>44528</v>
       </c>
@@ -27261,7 +27267,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="336" spans="1:26">
+    <row r="336" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A336" s="4">
         <v>44529</v>
       </c>
@@ -27341,7 +27347,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="337" spans="1:26">
+    <row r="337" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A337" s="4">
         <v>44530</v>
       </c>
@@ -27421,7 +27427,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="338" spans="1:26">
+    <row r="338" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A338" s="4">
         <v>44531</v>
       </c>
@@ -27501,7 +27507,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="339" spans="1:26">
+    <row r="339" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A339" s="4">
         <v>44532</v>
       </c>
@@ -27581,7 +27587,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="340" spans="1:26">
+    <row r="340" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A340" s="4">
         <v>44533</v>
       </c>
@@ -27661,7 +27667,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="341" spans="1:26">
+    <row r="341" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A341" s="4">
         <v>44534</v>
       </c>
@@ -27741,7 +27747,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="342" spans="1:26">
+    <row r="342" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A342" s="4">
         <v>44535</v>
       </c>
@@ -27821,7 +27827,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="343" spans="1:26">
+    <row r="343" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A343" s="4">
         <v>44536</v>
       </c>
@@ -27901,7 +27907,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="344" spans="1:26">
+    <row r="344" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A344" s="4">
         <v>44537</v>
       </c>
@@ -27981,7 +27987,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="345" spans="1:26">
+    <row r="345" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A345" s="4">
         <v>44538</v>
       </c>
@@ -28061,7 +28067,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="346" spans="1:26">
+    <row r="346" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A346" s="4">
         <v>44539</v>
       </c>
@@ -28141,7 +28147,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="347" spans="1:26">
+    <row r="347" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A347" s="4">
         <v>44540</v>
       </c>
@@ -28221,7 +28227,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="348" spans="1:26">
+    <row r="348" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A348" s="4">
         <v>44541</v>
       </c>
@@ -28301,7 +28307,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="349" spans="1:26">
+    <row r="349" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A349" s="4">
         <v>44542</v>
       </c>
@@ -28381,7 +28387,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="350" spans="1:26">
+    <row r="350" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A350" s="4">
         <v>44543</v>
       </c>
@@ -28461,7 +28467,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="351" spans="1:26">
+    <row r="351" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A351" s="4">
         <v>44544</v>
       </c>
@@ -28541,7 +28547,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="352" spans="1:26">
+    <row r="352" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A352" s="4">
         <v>44545</v>
       </c>
@@ -28621,7 +28627,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="353" spans="1:26">
+    <row r="353" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A353" s="4">
         <v>44546</v>
       </c>
@@ -28701,7 +28707,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="354" spans="1:26">
+    <row r="354" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A354" s="4">
         <v>44547</v>
       </c>
@@ -28781,7 +28787,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="355" spans="1:26">
+    <row r="355" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A355" s="4">
         <v>44548</v>
       </c>
@@ -28861,7 +28867,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="356" spans="1:26">
+    <row r="356" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A356" s="4">
         <v>44549</v>
       </c>
@@ -28941,7 +28947,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="357" spans="1:26">
+    <row r="357" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A357" s="4">
         <v>44550</v>
       </c>
@@ -29021,7 +29027,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="358" spans="1:26">
+    <row r="358" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A358" s="4">
         <v>44551</v>
       </c>
@@ -29101,7 +29107,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="359" spans="1:26">
+    <row r="359" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A359" s="4">
         <v>44552</v>
       </c>
@@ -29181,7 +29187,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="360" spans="1:26">
+    <row r="360" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A360" s="4">
         <v>44553</v>
       </c>
@@ -29261,7 +29267,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="361" spans="1:26">
+    <row r="361" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A361" s="4">
         <v>44554</v>
       </c>
@@ -29341,7 +29347,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="362" spans="1:26">
+    <row r="362" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A362" s="4">
         <v>44555</v>
       </c>
@@ -29421,7 +29427,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="363" spans="1:26">
+    <row r="363" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A363" s="4">
         <v>44556</v>
       </c>
@@ -29501,7 +29507,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="364" spans="1:26">
+    <row r="364" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A364" s="4">
         <v>44557</v>
       </c>
@@ -29581,7 +29587,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="365" spans="1:26">
+    <row r="365" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A365" s="4">
         <v>44558</v>
       </c>
@@ -29661,7 +29667,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="366" spans="1:26">
+    <row r="366" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A366" s="4">
         <v>44559</v>
       </c>
@@ -29741,7 +29747,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="367" spans="1:26">
+    <row r="367" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A367" s="4">
         <v>44560</v>
       </c>
@@ -29821,7 +29827,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="368" spans="1:26">
+    <row r="368" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A368" s="4">
         <v>44561</v>
       </c>
@@ -29931,6 +29937,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002BA42287BCA96E4CBE0B0D4D30D58F77" ma:contentTypeVersion="1" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="430dbe27c8d3fdb5344da83a654157b0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e48ec5c2-614c-49e6-a81a-ca54d4b077b0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="acf7ea99d1f8bcbadb4a28bdb40ccc60" ns2:_="">
     <xsd:import namespace="e48ec5c2-614c-49e6-a81a-ca54d4b077b0"/>
@@ -30070,20 +30082,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DEAC069-6374-4356-B6EC-F3841A1E5586}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DEAC069-6374-4356-B6EC-F3841A1E5586}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{861BFC9E-38AC-44FB-80DA-C941FCB9A0F0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BA765C4-E9E0-4CF9-8774-F4D53E0CA4FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BA765C4-E9E0-4CF9-8774-F4D53E0CA4FC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{861BFC9E-38AC-44FB-80DA-C941FCB9A0F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e48ec5c2-614c-49e6-a81a-ca54d4b077b0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>